--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8213,7 +8213,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80976096</v>
+        <v>80976130</v>
       </c>
       <c r="B62" t="n">
         <v>9308</v>
@@ -8263,12 +8263,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>hona</t>
+          <t>hane</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>funnen död</t>
+          <t>frispringande/krypande</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Fann ett huvud i perfekt rödmurken låga.</t>
+          <t>Ny lokal, och blott tredje kända i Södermanland!? Närmast funnen i Tyresta NP. Bör eftersökas på fler lokaler i kommunen! Grävde först fram fragment av en ad hona, men kunde sedan finna en vuxen hane i en perfekt rödmurken granlåga i sent nedbrytningsstadium.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8495,10 +8495,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111683850</v>
+        <v>111683845</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8511,48 +8511,40 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R64" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S64" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8581,7 +8573,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8591,7 +8583,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8618,10 +8610,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683845</v>
+        <v>111683856</v>
       </c>
       <c r="B65" t="n">
-        <v>89183</v>
+        <v>108219</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8634,26 +8626,27 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3215</v>
+        <v>219711</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8696,7 +8689,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8706,7 +8699,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8733,10 +8726,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683856</v>
+        <v>111683850</v>
       </c>
       <c r="B66" t="n">
-        <v>108219</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8749,41 +8742,48 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R66" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S66" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8213,7 +8213,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80976130</v>
+        <v>80976096</v>
       </c>
       <c r="B62" t="n">
         <v>9308</v>
@@ -8263,12 +8263,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>hane</t>
+          <t>hona</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>frispringande/krypande</t>
+          <t>funnen död</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ny lokal, och blott tredje kända i Södermanland!? Närmast funnen i Tyresta NP. Bör eftersökas på fler lokaler i kommunen! Grävde först fram fragment av en ad hona, men kunde sedan finna en vuxen hane i en perfekt rödmurken granlåga i sent nedbrytningsstadium.</t>
+          <t>Fann ett huvud i perfekt rödmurken låga.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683853</v>
+        <v>111683850</v>
       </c>
       <c r="B63" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,40 +8396,48 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R63" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S63" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8458,7 +8466,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8468,7 +8476,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8726,10 +8734,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683850</v>
+        <v>111683853</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8742,48 +8750,40 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R66" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S66" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8213,7 +8213,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80976096</v>
+        <v>80976130</v>
       </c>
       <c r="B62" t="n">
         <v>9308</v>
@@ -8263,12 +8263,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>hona</t>
+          <t>hane</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>funnen död</t>
+          <t>frispringande/krypande</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Fann ett huvud i perfekt rödmurken låga.</t>
+          <t>Ny lokal, och blott tredje kända i Södermanland!? Närmast funnen i Tyresta NP. Bör eftersökas på fler lokaler i kommunen! Grävde först fram fragment av en ad hona, men kunde sedan finna en vuxen hane i en perfekt rödmurken granlåga i sent nedbrytningsstadium.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683850</v>
+        <v>111683856</v>
       </c>
       <c r="B63" t="n">
-        <v>90332</v>
+        <v>108219</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,48 +8396,41 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4769</v>
+        <v>219711</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R63" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S63" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8466,7 +8459,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8476,7 +8469,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8618,10 +8611,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683856</v>
+        <v>111683853</v>
       </c>
       <c r="B65" t="n">
-        <v>108219</v>
+        <v>90687</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8634,27 +8627,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219711</v>
+        <v>5964</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8734,10 +8726,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683853</v>
+        <v>111683850</v>
       </c>
       <c r="B66" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8750,40 +8742,48 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R66" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S66" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8213,7 +8213,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80976130</v>
+        <v>80976096</v>
       </c>
       <c r="B62" t="n">
         <v>9308</v>
@@ -8263,12 +8263,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>hane</t>
+          <t>hona</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>frispringande/krypande</t>
+          <t>funnen död</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ny lokal, och blott tredje kända i Södermanland!? Närmast funnen i Tyresta NP. Bör eftersökas på fler lokaler i kommunen! Grävde först fram fragment av en ad hona, men kunde sedan finna en vuxen hane i en perfekt rödmurken granlåga i sent nedbrytningsstadium.</t>
+          <t>Fann ett huvud i perfekt rödmurken låga.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683856</v>
+        <v>111683850</v>
       </c>
       <c r="B63" t="n">
-        <v>108219</v>
+        <v>90332</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,41 +8396,48 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R63" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S63" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8459,7 +8466,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8469,7 +8476,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8611,10 +8618,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683853</v>
+        <v>111683856</v>
       </c>
       <c r="B65" t="n">
-        <v>90687</v>
+        <v>108219</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8627,26 +8634,27 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5964</v>
+        <v>219711</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8726,10 +8734,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683850</v>
+        <v>111683853</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8742,48 +8750,40 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R66" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S66" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8213,7 +8213,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>80976096</v>
+        <v>80976130</v>
       </c>
       <c r="B62" t="n">
         <v>9308</v>
@@ -8263,12 +8263,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>hona</t>
+          <t>hane</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>funnen död</t>
+          <t>frispringande/krypande</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Fann ett huvud i perfekt rödmurken låga.</t>
+          <t>Ny lokal, och blott tredje kända i Södermanland!? Närmast funnen i Tyresta NP. Bör eftersökas på fler lokaler i kommunen! Grävde först fram fragment av en ad hona, men kunde sedan finna en vuxen hane i en perfekt rödmurken granlåga i sent nedbrytningsstadium.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683850</v>
+        <v>111683845</v>
       </c>
       <c r="B63" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,48 +8396,40 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R63" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S63" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8466,7 +8458,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8476,7 +8468,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8503,10 +8495,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111683845</v>
+        <v>111683853</v>
       </c>
       <c r="B64" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8519,21 +8511,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8581,7 +8573,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8591,7 +8583,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8618,10 +8610,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683856</v>
+        <v>111683850</v>
       </c>
       <c r="B65" t="n">
-        <v>108219</v>
+        <v>90332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8634,41 +8626,48 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R65" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S65" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8697,7 +8696,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8707,7 +8706,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8734,10 +8733,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683853</v>
+        <v>111683856</v>
       </c>
       <c r="B66" t="n">
-        <v>90687</v>
+        <v>108219</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8750,26 +8749,27 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5964</v>
+        <v>219711</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683845</v>
+        <v>111683853</v>
       </c>
       <c r="B63" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,21 +8396,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -8458,7 +8458,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8495,10 +8495,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111683853</v>
+        <v>111683845</v>
       </c>
       <c r="B64" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8511,21 +8511,21 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8573,7 +8573,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8583,7 +8583,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8610,10 +8610,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683850</v>
+        <v>111683856</v>
       </c>
       <c r="B65" t="n">
-        <v>90332</v>
+        <v>108219</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8626,48 +8626,41 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4769</v>
+        <v>219711</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R65" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S65" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -8696,7 +8689,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8706,7 +8699,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8733,10 +8726,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683856</v>
+        <v>111683850</v>
       </c>
       <c r="B66" t="n">
-        <v>108219</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8749,41 +8742,48 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R66" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S66" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683853</v>
+        <v>111683850</v>
       </c>
       <c r="B63" t="n">
-        <v>90687</v>
+        <v>90332</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,40 +8396,48 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5964</v>
+        <v>4769</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R63" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S63" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8458,7 +8466,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8468,7 +8476,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8495,10 +8503,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111683845</v>
+        <v>111683856</v>
       </c>
       <c r="B64" t="n">
-        <v>89183</v>
+        <v>108219</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8511,26 +8519,27 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>3215</v>
+        <v>219711</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
@@ -8573,7 +8582,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8583,7 +8592,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8610,10 +8619,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683856</v>
+        <v>111683845</v>
       </c>
       <c r="B65" t="n">
-        <v>108219</v>
+        <v>89183</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8626,27 +8635,26 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>219711</v>
+        <v>3215</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8689,7 +8697,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8699,7 +8707,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8726,10 +8734,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683850</v>
+        <v>111683853</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8742,48 +8750,40 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R66" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S66" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683850</v>
+        <v>111683845</v>
       </c>
       <c r="B63" t="n">
-        <v>90332</v>
+        <v>89183</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,48 +8396,40 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>4769</v>
+        <v>3215</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689075.4602011892</v>
+        <v>689111.5690902721</v>
       </c>
       <c r="R63" t="n">
-        <v>6570319.534944151</v>
+        <v>6570305.953062683</v>
       </c>
       <c r="S63" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8466,7 +8458,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8476,7 +8468,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8503,10 +8495,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111683856</v>
+        <v>111683850</v>
       </c>
       <c r="B64" t="n">
-        <v>108219</v>
+        <v>90332</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8519,41 +8511,48 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>219711</v>
+        <v>4769</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sårläka</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sanicula europaea</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>L.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>689111.5690902721</v>
+        <v>689075.4602011892</v>
       </c>
       <c r="R64" t="n">
-        <v>6570305.953062683</v>
+        <v>6570319.534944151</v>
       </c>
       <c r="S64" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8582,7 +8581,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8592,7 +8591,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8619,10 +8618,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111683845</v>
+        <v>111683856</v>
       </c>
       <c r="B65" t="n">
-        <v>89183</v>
+        <v>108219</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8635,26 +8634,27 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3215</v>
+        <v>219711</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Sårläka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sanicula europaea</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -8697,7 +8697,7 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="AB65" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD65" t="b">

--- a/artfynd/A 60923-2021.xlsx
+++ b/artfynd/A 60923-2021.xlsx
@@ -8380,10 +8380,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111683845</v>
+        <v>111683850</v>
       </c>
       <c r="B63" t="n">
-        <v>89183</v>
+        <v>90332</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -8396,40 +8396,48 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Fiskarsundet, Srm</t>
+          <t>Bergaholm, Tyresö kn, Srm</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>689111.5690902721</v>
+        <v>689075</v>
       </c>
       <c r="R63" t="n">
-        <v>6570305.953062683</v>
+        <v>6570320</v>
       </c>
       <c r="S63" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -8458,7 +8466,7 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
@@ -8468,7 +8476,7 @@
       </c>
       <c r="AB63" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -8495,10 +8503,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111683850</v>
+        <v>111683853</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>90687</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -8511,48 +8519,40 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>5964</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Bergaholm, Tyresö kn, Srm</t>
+          <t>Fiskarsundet, Srm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>689075.4602011892</v>
+        <v>689112</v>
       </c>
       <c r="R64" t="n">
-        <v>6570319.534944151</v>
+        <v>6570306</v>
       </c>
       <c r="S64" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="T64" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="AB64" t="inlineStr">
         <is>
-          <t>09:25</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8662,10 +8662,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>689111.5690902721</v>
+        <v>689112</v>
       </c>
       <c r="R65" t="n">
-        <v>6570305.953062683</v>
+        <v>6570306</v>
       </c>
       <c r="S65" t="n">
         <v>23</v>
@@ -8734,10 +8734,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111683853</v>
+        <v>111683845</v>
       </c>
       <c r="B66" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8750,21 +8750,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8777,10 +8777,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>689111.5690902721</v>
+        <v>689112</v>
       </c>
       <c r="R66" t="n">
-        <v>6570305.953062683</v>
+        <v>6570306</v>
       </c>
       <c r="S66" t="n">
         <v>23</v>
@@ -8812,7 +8812,7 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="AB66" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:36</t>
         </is>
       </c>
       <c r="AD66" t="b">
